--- a/data_cleaning/Caption_Table.xlsx
+++ b/data_cleaning/Caption_Table.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grahamke\Documents\GitHub\TIMES-NZ\TIMES_shiny\data_cleaning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grahamke\Documents\GitHub\TIMES-NZ\data_cleaning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -149,9 +149,6 @@
     <t>Agriculture</t>
   </si>
   <si>
-    <t>Emissions decline by over 80% as mainly off road liquid fuels are displaced. Some diesel still remains from hard to decarbonise areas such as high utilisation tractors and commercial fishing vessels</t>
-  </si>
-  <si>
     <t>Dairy farming is not expected to grow much because of land constraints, and  energy productivity improvements (mostly in) irrigation cause reductions in energy demand.</t>
   </si>
   <si>
@@ -173,9 +170,6 @@
     <t>Commercial</t>
   </si>
   <si>
-    <t>Emissions decline in both scenarios - but some natural gas remains in water and space heating, having a larger impact in Kea due to the higher GDP growth</t>
-  </si>
-  <si>
     <t>Schools slowly move away from heating with fossil fuels, with some legacy systems remaining in place until 2050.</t>
   </si>
   <si>
@@ -209,15 +203,9 @@
     <t>Large grid scale solar is chosen from 2040. Small scale rooftop solar is chosen in small amounts throughout the time horizon.</t>
   </si>
   <si>
-    <t>Coal and Natural Gas decrease significantly as new wind and hydro generation gets developed. Natural Gas is supplied during winter months due to the limited amount of other economically achievable options</t>
-  </si>
-  <si>
     <t>Industrial</t>
   </si>
   <si>
-    <t>Diesel prolongs in both scenarios as alternative technologies are not yet available. There is 4 PJ of biofuel in Kea further reducing diesel emissions</t>
-  </si>
-  <si>
     <t>Dairy Product Manufacturing</t>
   </si>
   <si>
@@ -233,9 +221,6 @@
     <t xml:space="preserve">Coal for process heat gets replaced by heat pumps for hot water in both scenarios but at different rates. </t>
   </si>
   <si>
-    <t xml:space="preserve">Diesel prolongs in both scenarios as alternative technologies are not yet available. There is 2.3 PJ of biofuel in Kea further reducing diesel emissions </t>
-  </si>
-  <si>
     <t>Non-Metallic Mineral Product Manufacturing</t>
   </si>
   <si>
@@ -329,13 +314,28 @@
     <t>Outdoor Horticulture/Arable Farming</t>
   </si>
   <si>
-    <t>Large decarbonisation occurs in the industrial sector with most of the remaining fossil fuels in hard to abate sectors. Note - Only energy related emissions are included in the TIMES-NZ model. Emissions from Feedstock are not expressed</t>
-  </si>
-  <si>
     <t xml:space="preserve"> In each time period, the share of EVs is larger in Kea than in Tūī because the Kea scenario assumes there is a larger ability to access EVs.  Note - the end use demand for Road Transport is measured as Distance Travelled in the metric dropdown tool.</t>
   </si>
   <si>
     <t>This balances energy in according to the New Zealand Energy Balances from MBIE.</t>
+  </si>
+  <si>
+    <t>Emissions decline by over 80% as mainly off road liquid fuels are displaced. Some diesel still remains from hard to decarbonise areas such as high utilisation tractors and commercial fishing vessels.</t>
+  </si>
+  <si>
+    <t>Emissions decline in both scenarios - but some natural gas remains in water and space heating, having a larger impact in Kea due to the higher GDP growth.</t>
+  </si>
+  <si>
+    <t>Coal and Natural Gas decrease significantly as new wind and hydro generation gets developed. Natural Gas is supplied during winter months due to the limited amount of other economically achievable options.</t>
+  </si>
+  <si>
+    <t>Large decarbonisation occurs in the industrial sector with most of the remaining fossil fuels in hard to abate sectors. Note - Only energy related emissions are included in the TIMES-NZ model. Emissions from Feedstock are not expressed.</t>
+  </si>
+  <si>
+    <t>Diesel prolongs in both scenarios as alternative technologies are not yet available. There is 4 PJ of biofuel in Kea further reducing diesel emissions.</t>
+  </si>
+  <si>
+    <t>Diesel prolongs in both scenarios as alternative technologies are not yet available. There is 2.3 PJ of biofuel in Kea further reducing diesel emissions.</t>
   </si>
 </sst>
 </file>
@@ -664,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,7 +704,7 @@
         <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -715,7 +715,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -726,7 +726,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -737,7 +737,7 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -745,10 +745,10 @@
         <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -759,7 +759,7 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -770,7 +770,7 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -778,76 +778,76 @@
         <v>40</v>
       </c>
       <c r="B10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" t="s">
         <v>97</v>
-      </c>
-      <c r="C10" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
         <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -858,7 +858,7 @@
         <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -866,10 +866,10 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -880,7 +880,7 @@
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -891,7 +891,7 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -902,7 +902,7 @@
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -913,7 +913,7 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -924,12 +924,12 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s">
         <v>34</v>
@@ -940,194 +940,194 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B25" t="s">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B26" t="s">
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C28" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B31" t="s">
         <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B32" t="s">
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C33" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B34" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C34" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C35" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C36" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C37" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B38" t="s">
         <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C39" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B40" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C40" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B41" t="s">
         <v>32</v>
       </c>
       <c r="C41" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B42" t="s">
         <v>12</v>
@@ -1138,40 +1138,40 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C43" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B44" t="s">
         <v>35</v>
       </c>
       <c r="C44" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B45" t="s">
         <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B46" t="s">
         <v>8</v>
@@ -1182,18 +1182,18 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B47" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C47" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B48" t="s">
         <v>9</v>

--- a/data_cleaning/Caption_Table.xlsx
+++ b/data_cleaning/Caption_Table.xlsx
@@ -113,9 +113,6 @@
     <t>Passenger rail in the South Island was disregarded because it represents only a minor amount.</t>
   </si>
   <si>
-    <t>Emissions from international shipping are not constraint in the model.</t>
-  </si>
-  <si>
     <t>All Other Subsectors</t>
   </si>
   <si>
@@ -227,9 +224,6 @@
     <t xml:space="preserve">Coal still remains for high temperature applications in both scenarios.  </t>
   </si>
   <si>
-    <t xml:space="preserve">This represents all non-listed subsectors in TIMES. </t>
-  </si>
-  <si>
     <t>Other Food Processing (Non Dairy/Meat Processing)</t>
   </si>
   <si>
@@ -278,9 +272,6 @@
     <t>Transport</t>
   </si>
   <si>
-    <t>Emissions from international aviation are not constrained in the model. Fuel consumption for aviation decreases in the period 2045-2060 because the Kea scenario assumes an aspect of flight shame.</t>
-  </si>
-  <si>
     <t>Road Transport</t>
   </si>
   <si>
@@ -317,9 +308,6 @@
     <t xml:space="preserve"> In each time period, the share of EVs is larger in Kea than in Tūī because the Kea scenario assumes there is a larger ability to access EVs.  Note - the end use demand for Road Transport is measured as Distance Travelled in the metric dropdown tool.</t>
   </si>
   <si>
-    <t>This balances energy in according to the New Zealand Energy Balances from MBIE.</t>
-  </si>
-  <si>
     <t>Emissions decline by over 80% as mainly off road liquid fuels are displaced. Some diesel still remains from hard to decarbonise areas such as high utilisation tractors and commercial fishing vessels.</t>
   </si>
   <si>
@@ -336,6 +324,18 @@
   </si>
   <si>
     <t>Diesel prolongs in both scenarios as alternative technologies are not yet available. There is 2.3 PJ of biofuel in Kea further reducing diesel emissions.</t>
+  </si>
+  <si>
+    <t>The purpose of this subsector is to reconcile energy demand totals with the MBIE Energy Balances.</t>
+  </si>
+  <si>
+    <t>This represents all non-listed subsectors in TIMES-NZ 2.0.</t>
+  </si>
+  <si>
+    <t>Emissions from international aviation are not constrained in the model. In Kea, fuel consumption for aviation decreases in the period 2045-2060 because this scenario assumes an aspect of flight shame.</t>
+  </si>
+  <si>
+    <t>Emissions from international shipping are not constrained in the model.</t>
   </si>
 </sst>
 </file>
@@ -664,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,7 +676,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -687,167 +687,167 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
         <v>37</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>38</v>
-      </c>
-      <c r="C2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -855,10 +855,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -866,10 +866,10 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
         <v>54</v>
-      </c>
-      <c r="C18" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -880,7 +880,7 @@
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -891,7 +891,7 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -902,7 +902,7 @@
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -913,7 +913,7 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -924,210 +924,210 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B26" t="s">
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" t="s">
         <v>59</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>60</v>
-      </c>
-      <c r="C27" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C28" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" t="s">
         <v>63</v>
-      </c>
-      <c r="C30" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B31" t="s">
         <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B32" t="s">
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" t="s">
         <v>65</v>
-      </c>
-      <c r="C33" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B34" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C34" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C37" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B38" t="s">
         <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C39" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C41" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B42" t="s">
         <v>12</v>
@@ -1138,40 +1138,40 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" t="s">
         <v>79</v>
       </c>
-      <c r="B43" t="s">
-        <v>81</v>
-      </c>
       <c r="C43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C44" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B45" t="s">
         <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B46" t="s">
         <v>8</v>
@@ -1182,24 +1182,24 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B47" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C47" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B48" t="s">
         <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
